--- a/ind_DICIEMBRE.xlsx
+++ b/ind_DICIEMBRE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="208">
   <si>
     <t>CCP</t>
   </si>
@@ -102,6 +102,9 @@
     <t>indice</t>
   </si>
   <si>
+    <t>ponderacion</t>
+  </si>
+  <si>
     <t>C1010.1.1</t>
   </si>
   <si>
@@ -702,7 +705,13 @@
     <t>SECCION</t>
   </si>
   <si>
+    <t>sum1</t>
+  </si>
+  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Industria de Manufactura</t>
   </si>
 </sst>
 </file>
@@ -1925,20 +1934,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.0571428571429" style="2"/>
     <col min="2" max="2" width="22.0380952380952" style="3" customWidth="1"/>
     <col min="3" max="3" width="70.8571428571429" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1951,1405 +1960,1708 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2.36777258685455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0.070034237869248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0.577498164676996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3.39491106575329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0.960398827924499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0.326263197697565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0.329187298784627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0.628984873141732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>0.106966496112087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0.549145615450291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.482655204513613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>3.20171280131453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0.239999629396922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0.907201136745214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0.456655499540234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1.11391787564256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0.731641307646356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0.256040531545418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0.750636730510915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0.181537966057431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0.109557602361919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>2.38908680271584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0.722648921402228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>2.31417113918117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>2.65408875345219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0.389931529333925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>0.679962212502279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0.268294236280618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>0.229538136292805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>3.56459581811847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>2.87339000147229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>0.309062256997545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>0.051548059360999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0.764600729195854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>3.33681859570151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0.524598350053553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0.186706556541633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0.384638570911784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>0.864055881175967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>0.770720998512434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>0.724566264723001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="D43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>0.153087595731072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>3.72042418761232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0.0171468535083289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>0.21953659644555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>0.24548316159591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>0.853787860838277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0.894951721977578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0.0202525466365719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0.259209086868908</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0.264757620343263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>0.174913489621221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D54">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>0.0587861827844532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>2.73125404180515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1.26401767556372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0.131882095917025</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>0.450826104793016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>0.384040898628251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D60">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>1.58469996044575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D61">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>2.43347806600498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D62">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0.379204299297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0.691757574008516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>2.47558774559676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>1.4360590602553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D66">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>3.22767911930381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0.152866007258786</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>0.726189428492877</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D69">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>4.67614790441578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D70">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0.074121114925974</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D71">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>0.509328642674851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D72">
         <v>100</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>0.136665026899553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0.685388890279056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D74">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>0.0648890941537358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>2.18976131329872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>1.0162478276322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D77">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>0.0318005685352066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0.191526725190851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>6.45117355080922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>0.187038746694366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>0.454702596486292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>0.214919020049417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D83">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>0.651798405259911</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D84">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0.159855840604306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1.99800221349396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D86">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1.44751591728554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D87">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>1.77705355671819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D88">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>0.414138893802134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D89">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>0.499411129194166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D90">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>0.891478916411599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>0.487254188696169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D92">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>0.6822724137232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D93">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>0.624443082078958</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D94">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>2.48880742537088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D95">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>2.29756047778635</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D96">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0.111576342703959</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D97">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0.231504124416427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D98">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>0.0405379818122482</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D99">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0.695985202977849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D100">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0.0922825525448037</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D101">
         <v>100</v>
+      </c>
+      <c r="E101">
+        <v>0.827188868273618</v>
       </c>
     </row>
   </sheetData>
@@ -3368,29 +3680,64 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="12.8571428571429"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
